--- a/Projects/Projects.xlsx
+++ b/Projects/Projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Sagar-Togra\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92FB4974-B134-47E6-B8CE-01293F2125A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DD8F93-7506-4A35-9E1E-D07692146175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00262BA5-C02A-4434-9EE2-2B8E855794D0}"/>
   </bookViews>
@@ -43,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,9 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,19 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A4D4F-AB64-41C1-BE03-1E6DD9E6470E}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -412,13 +419,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>45320</v>
       </c>
+      <c r="C3" s="2">
+        <v>45322.884722222225</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projects/Projects.xlsx
+++ b/Projects/Projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Sagar-Togra\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DD8F93-7506-4A35-9E1E-D07692146175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534ACCA1-D551-4C21-82E6-082873524222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00262BA5-C02A-4434-9EE2-2B8E855794D0}"/>
+    <workbookView xWindow="2415" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00262BA5-C02A-4434-9EE2-2B8E855794D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>Js29Ja01</t>
-  </si>
-  <si>
     <t>Start_date</t>
   </si>
   <si>
     <t>Completion_Date</t>
+  </si>
+  <si>
+    <t>js01fb02</t>
+  </si>
+  <si>
+    <t>cs02fb03</t>
+  </si>
+  <si>
+    <t>js29ja01</t>
   </si>
 </sst>
 </file>
@@ -44,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -79,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A4D4F-AB64-41C1-BE03-1E6DD9E6470E}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -413,15 +419,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>45320</v>
@@ -430,6 +436,25 @@
         <v>45322.884722222225</v>
       </c>
       <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45323.647916666669</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45324.611111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45324.611111111109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projects/Projects.xlsx
+++ b/Projects/Projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Sagar-Togra\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534ACCA1-D551-4C21-82E6-082873524222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC825A-0A45-4C91-9A28-449523D45438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00262BA5-C02A-4434-9EE2-2B8E855794D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Project Name</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>js29ja01</t>
+  </si>
+  <si>
+    <t>cs06fb04</t>
+  </si>
+  <si>
+    <t>cs07fb05</t>
+  </si>
+  <si>
+    <t>cs08fb06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -52,10 +64,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -400,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A4D4F-AB64-41C1-BE03-1E6DD9E6470E}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,8 +473,47 @@
       <c r="B5" s="2">
         <v>45324.611111111109</v>
       </c>
+      <c r="C5" s="2">
+        <v>45328.832638888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45329.477083333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45329.477083333331</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45330.720833333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45330.72152777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>